--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_784.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_784.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32055-d8735869-Reviews-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>118</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Travelodge-Inn-Suites-By-Wyndham-Bell-Los-Angeles-Area.h12542049.Hotel-Information</t>
@@ -532,11 +538,15 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
       <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +568,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_784.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_784.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="444">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,1217 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r582447596-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>32055</t>
+  </si>
+  <si>
+    <t>8735869</t>
+  </si>
+  <si>
+    <t>582447596</t>
+  </si>
+  <si>
+    <t>05/24/2018</t>
+  </si>
+  <si>
+    <t>Front desk,free parking,free wifi</t>
+  </si>
+  <si>
+    <t>We stayed at Travelodge for our vacation and had a Jacuzzi suite,the room was nice and big.free breakfast and free WiFi &amp; parking.staff was very welcoming..they have security guard in the night,we felt safe(if you are with your family security is main concern). everyday room service..on walking distance they have good restaurant.and very convenient to reach all LA tourist place because Travelodge is in the center of all places.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>travelodgebell, Hotel Manager at Travelodge Inn &amp; Suites by Wyndham Bell Los Angeles Area, responded to this reviewResponded May 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2018</t>
+  </si>
+  <si>
+    <t>We stayed at Travelodge for our vacation and had a Jacuzzi suite,the room was nice and big.free breakfast and free WiFi &amp; parking.staff was very welcoming..they have security guard in the night,we felt safe(if you are with your family security is main concern). everyday room service..on walking distance they have good restaurant.and very convenient to reach all LA tourist place because Travelodge is in the center of all places.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r582267662-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>582267662</t>
+  </si>
+  <si>
+    <t>05/23/2018</t>
+  </si>
+  <si>
+    <t>Only hotel for me</t>
+  </si>
+  <si>
+    <t>I have been traveling to L.A. several times a year for almost 2 decades. I have tried numerous hotel/motels and non compare with this one. It is clean, very friendly and helpful staff. The lobby is open 24 hours and has free coffee.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I have been traveling to L.A. several times a year for almost 2 decades. I have tried numerous hotel/motels and non compare with this one. It is clean, very friendly and helpful staff. The lobby is open 24 hours and has free coffee.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r577590420-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>577590420</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t>Holidays</t>
+  </si>
+  <si>
+    <t>My experience with the hotel was really amazing. I had a warm welcome from the staff, nice and clean rooms, very good, fresh and healthy breakfast, spacious parking, nearby grocery stores and many restaurants. Over all I liked the place and will surely visit again soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>travelodgebell, Hotel Manager at Travelodge Inn &amp; Suites by Wyndham Bell Los Angeles Area, responded to this reviewResponded May 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2018</t>
+  </si>
+  <si>
+    <t>My experience with the hotel was really amazing. I had a warm welcome from the staff, nice and clean rooms, very good, fresh and healthy breakfast, spacious parking, nearby grocery stores and many restaurants. Over all I liked the place and will surely visit again soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r569505355-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>569505355</t>
+  </si>
+  <si>
+    <t>03/29/2018</t>
+  </si>
+  <si>
+    <t>TERRIBLE Customer Service!! Room was dirty and Smelled of Urine.</t>
+  </si>
+  <si>
+    <t>The customer service was horrible. I complained about the carpet smelling like urine and the T.V. not being clear and the management refused to change my room accommodations. The Hotels.com app asked me to do a survey shortly after checking in and I decided to mention this in my post. The hotel management received the negative review and decided to kick me out of the hotel all without attempting to help me with my room arrangements or service needs. This is the most unprofessional Travelodge in the world. I would never recommend this place to anyone. I am greatly disappointed in the Management and in the Hotels.com members for allowing this embarrassment to happen.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>travelodgebell, Hotel Manager at Travelodge Inn &amp; Suites by Wyndham Bell Los Angeles Area, responded to this reviewResponded April 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2018</t>
+  </si>
+  <si>
+    <t>The customer service was horrible. I complained about the carpet smelling like urine and the T.V. not being clear and the management refused to change my room accommodations. The Hotels.com app asked me to do a survey shortly after checking in and I decided to mention this in my post. The hotel management received the negative review and decided to kick me out of the hotel all without attempting to help me with my room arrangements or service needs. This is the most unprofessional Travelodge in the world. I would never recommend this place to anyone. I am greatly disappointed in the Management and in the Hotels.com members for allowing this embarrassment to happen.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r550231324-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>550231324</t>
+  </si>
+  <si>
+    <t>12/30/2017</t>
+  </si>
+  <si>
+    <t>A Picture Is Not Worth a Thousand Words</t>
+  </si>
+  <si>
+    <t>The hotel pictures were marvelous when compared to the actual appearance of the hotel, and the hotel guestroom. This hotel needs much improvement. Though the staff was helpful, the room was overpriced for the condition it was in. My partner and I stayed in a King Suite, and it felt like a low-budget motel room. The internet was terrible; I could not even watch a movie on my laptop. There were stains on the walls and carpet. It was just simply unkempt. We will not ever be returning to this establishment. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>travelodgebell, Webmaster at Travelodge Inn &amp; Suites by Wyndham Bell Los Angeles Area, responded to this reviewResponded January 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2018</t>
+  </si>
+  <si>
+    <t>The hotel pictures were marvelous when compared to the actual appearance of the hotel, and the hotel guestroom. This hotel needs much improvement. Though the staff was helpful, the room was overpriced for the condition it was in. My partner and I stayed in a King Suite, and it felt like a low-budget motel room. The internet was terrible; I could not even watch a movie on my laptop. There were stains on the walls and carpet. It was just simply unkempt. We will not ever be returning to this establishment. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r549617839-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>549617839</t>
+  </si>
+  <si>
+    <t>12/27/2017</t>
+  </si>
+  <si>
+    <t>Locaton was easy to find. The hotel was clean and the staff were helpful/friendly</t>
+  </si>
+  <si>
+    <t>I was in California for a six day trip to look the area over for a potential move. The hotel fit the bill for price and location. The room was a queen suite which they upgraded me to at no additional charge. The staff were pleasant and helpful I would definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I was in California for a six day trip to look the area over for a potential move. The hotel fit the bill for price and location. The room was a queen suite which they upgraded me to at no additional charge. The staff were pleasant and helpful I would definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r543856274-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>543856274</t>
+  </si>
+  <si>
+    <t>11/28/2017</t>
+  </si>
+  <si>
+    <t>Very Good</t>
+  </si>
+  <si>
+    <t>I stay here all the time because the property was recently renovated. It's nice, clean and inexpensive.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>travelodgebell, Webmaster at Travelodge Inn &amp; Suites by Wyndham Bell Los Angeles Area, responded to this reviewResponded December 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2017</t>
+  </si>
+  <si>
+    <t>I stay here all the time because the property was recently renovated. It's nice, clean and inexpensive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r541431602-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>541431602</t>
+  </si>
+  <si>
+    <t>11/16/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>travelodgebell, webmaster at Travelodge Inn &amp; Suites by Wyndham Bell Los Angeles Area, responded to this reviewResponded November 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 20, 2017</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r540246737-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>540246737</t>
+  </si>
+  <si>
+    <t>11/11/2017</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>travelodgebell, Webmaster at Travelodge Inn &amp; Suites by Wyndham Bell Los Angeles Area, responded to this reviewResponded November 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r534638303-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>534638303</t>
+  </si>
+  <si>
+    <t>10/20/2017</t>
+  </si>
+  <si>
+    <t>Great rooms for your money</t>
+  </si>
+  <si>
+    <t>There is no pool or jacuzzi. It is  my opinion that the water feature they have in the far back corner they should put in a huge Jacuzzi in place because who really sees at water feature? The rooms were comfortable the staff was excellent and the rooms were clean and I stay a lot of places. Well worth the moneyMoreShow less</t>
+  </si>
+  <si>
+    <t>travelodgebell, webmaster at Travelodge Inn &amp; Suites by Wyndham Bell Los Angeles Area, responded to this reviewResponded October 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2017</t>
+  </si>
+  <si>
+    <t>There is no pool or jacuzzi. It is  my opinion that the water feature they have in the far back corner they should put in a huge Jacuzzi in place because who really sees at water feature? The rooms were comfortable the staff was excellent and the rooms were clean and I stay a lot of places. Well worth the moneyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r533894725-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>533894725</t>
+  </si>
+  <si>
+    <t>10/17/2017</t>
+  </si>
+  <si>
+    <t>Definitely not a 4 star :(</t>
+  </si>
+  <si>
+    <t>I am by no means an expert but I AM a flight attendant and in 10 years of flying I have stayed in many, many hotels. 
+For the most part the staff was polite but the property left much to be desired. 
+I can handle old and out dated, which it was. I can handle minor disrepair, which there was. What I can't handle is uncleanliness and not feeling entirely safe. 
+The hotel is not in a great neighbourhood, which people from out of the country may not know. It is two levels with no elevators, which was fine for us but would be a challenge for others. It is and outdoor mezzanine style building which means you can't open your drapes without people walking to and from their rooms being able to see right into your room. The dead bolt on our door was inoperable so apart from the electronic key entry the only security was the swinging door latch which still allows others to get your door open 4-5 inches! Because the walls were so thin I could hear the guests beside us fighting with their deadbolt and expressing their dismay until they also finally gave up. 
+As I was travelling with a young child before we checked out I did a quick sweep of our room to make sure we hadn't left anything behind. Just around the base of the bed I found food &amp; wrappers (not...I am by no means an expert but I AM a flight attendant and in 10 years of flying I have stayed in many, many hotels. For the most part the staff was polite but the property left much to be desired. I can handle old and out dated, which it was. I can handle minor disrepair, which there was. What I can't handle is uncleanliness and not feeling entirely safe. The hotel is not in a great neighbourhood, which people from out of the country may not know. It is two levels with no elevators, which was fine for us but would be a challenge for others. It is and outdoor mezzanine style building which means you can't open your drapes without people walking to and from their rooms being able to see right into your room. The dead bolt on our door was inoperable so apart from the electronic key entry the only security was the swinging door latch which still allows others to get your door open 4-5 inches! Because the walls were so thin I could hear the guests beside us fighting with their deadbolt and expressing their dismay until they also finally gave up. As I was travelling with a young child before we checked out I did a quick sweep of our room to make sure we hadn't left anything behind. Just around the base of the bed I found food &amp; wrappers (not ours), a dollar in US change (not ours) and a second tv remote! ... clearly the linen had not been moved and the room not vacuumed since the last guest. The continental breakfast was pretty lack lustre to boot. Lesson learned. MoreShow less</t>
+  </si>
+  <si>
+    <t>travelodgebell, Webmaster at Travelodge Inn &amp; Suites by Wyndham Bell Los Angeles Area, responded to this reviewResponded October 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 25, 2017</t>
+  </si>
+  <si>
+    <t>I am by no means an expert but I AM a flight attendant and in 10 years of flying I have stayed in many, many hotels. 
+For the most part the staff was polite but the property left much to be desired. 
+I can handle old and out dated, which it was. I can handle minor disrepair, which there was. What I can't handle is uncleanliness and not feeling entirely safe. 
+The hotel is not in a great neighbourhood, which people from out of the country may not know. It is two levels with no elevators, which was fine for us but would be a challenge for others. It is and outdoor mezzanine style building which means you can't open your drapes without people walking to and from their rooms being able to see right into your room. The dead bolt on our door was inoperable so apart from the electronic key entry the only security was the swinging door latch which still allows others to get your door open 4-5 inches! Because the walls were so thin I could hear the guests beside us fighting with their deadbolt and expressing their dismay until they also finally gave up. 
+As I was travelling with a young child before we checked out I did a quick sweep of our room to make sure we hadn't left anything behind. Just around the base of the bed I found food &amp; wrappers (not...I am by no means an expert but I AM a flight attendant and in 10 years of flying I have stayed in many, many hotels. For the most part the staff was polite but the property left much to be desired. I can handle old and out dated, which it was. I can handle minor disrepair, which there was. What I can't handle is uncleanliness and not feeling entirely safe. The hotel is not in a great neighbourhood, which people from out of the country may not know. It is two levels with no elevators, which was fine for us but would be a challenge for others. It is and outdoor mezzanine style building which means you can't open your drapes without people walking to and from their rooms being able to see right into your room. The dead bolt on our door was inoperable so apart from the electronic key entry the only security was the swinging door latch which still allows others to get your door open 4-5 inches! Because the walls were so thin I could hear the guests beside us fighting with their deadbolt and expressing their dismay until they also finally gave up. As I was travelling with a young child before we checked out I did a quick sweep of our room to make sure we hadn't left anything behind. Just around the base of the bed I found food &amp; wrappers (not ours), a dollar in US change (not ours) and a second tv remote! ... clearly the linen had not been moved and the room not vacuumed since the last guest. The continental breakfast was pretty lack lustre to boot. Lesson learned. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r533843966-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>533843966</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r525761887-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>525761887</t>
+  </si>
+  <si>
+    <t>09/19/2017</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Over all good stay, would recommend to friends and family. The only thing that we were not satisfied with was breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>travelodgebell, webmaster at Travelodge Inn &amp; Suites by Wyndham Bell Los Angeles Area, responded to this reviewResponded September 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2017</t>
+  </si>
+  <si>
+    <t>Over all good stay, would recommend to friends and family. The only thing that we were not satisfied with was breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r525269891-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>525269891</t>
+  </si>
+  <si>
+    <t>09/17/2017</t>
+  </si>
+  <si>
+    <t>Comfortable and reasonably quiet</t>
+  </si>
+  <si>
+    <t>You can never control the noise of fellow stayers, but we found overall the noise level from the road was minimal. The room was very clean and adequate for our needs. The only criticism I would have is the lack of seating for breakfast. There are four big tables, and no small ones for the numerous couples who were there. Other Travelodges we have stayed in, tended to have more tables for two. Breakfast was ok, typical American fare.Would have no hesitation in staying here again if the need arose. We chose this place for price and convenience to Citadel Outlets.MoreShow less</t>
+  </si>
+  <si>
+    <t>You can never control the noise of fellow stayers, but we found overall the noise level from the road was minimal. The room was very clean and adequate for our needs. The only criticism I would have is the lack of seating for breakfast. There are four big tables, and no small ones for the numerous couples who were there. Other Travelodges we have stayed in, tended to have more tables for two. Breakfast was ok, typical American fare.Would have no hesitation in staying here again if the need arose. We chose this place for price and convenience to Citadel Outlets.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r514956473-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>514956473</t>
+  </si>
+  <si>
+    <t>08/18/2017</t>
+  </si>
+  <si>
+    <t>Horrible .</t>
+  </si>
+  <si>
+    <t>So I booked august 14th the room was fine clean bathroom clean bed no problems! Pretty clean for a smoking room! So I decided to book for another night which I booked for the following night mind me I work from 1:30 p.m - 9:00 p.m. Their check-in time is 3:00 p.m I got to the hotel around 12:47 a.m to check-in I end up getting told that my reservation was canceled because my room was wrecked! That I had a party And that my boyfriend was there that I'm blocked from booking with them when me and my boyfriend were never there they were just accusing us I never got the room I went the next morning to speak to a supervisor he was no help all he said was talk to the supervisor in the afternoon I work afternoon ! None of them helped me! I was charged and asked them for a refund because I never checked in I had to book another hotel it was horrible!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>travelodgebell, webmaster at Travelodge Inn &amp; Suites by Wyndham Bell Los Angeles Area, responded to this reviewResponded September 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2017</t>
+  </si>
+  <si>
+    <t>So I booked august 14th the room was fine clean bathroom clean bed no problems! Pretty clean for a smoking room! So I decided to book for another night which I booked for the following night mind me I work from 1:30 p.m - 9:00 p.m. Their check-in time is 3:00 p.m I got to the hotel around 12:47 a.m to check-in I end up getting told that my reservation was canceled because my room was wrecked! That I had a party And that my boyfriend was there that I'm blocked from booking with them when me and my boyfriend were never there they were just accusing us I never got the room I went the next morning to speak to a supervisor he was no help all he said was talk to the supervisor in the afternoon I work afternoon ! None of them helped me! I was charged and asked them for a refund because I never checked in I had to book another hotel it was horrible!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r505693617-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>505693617</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>Family holiday</t>
+  </si>
+  <si>
+    <t>Central location to all attractions including Downtown, Disneyland, Universal Studios. Heard negative about ' Bell' area but this location and hotel were very good and safe. Hotel staff helped with directions and local information.Saw lots of families with kids for breakfast in the morning in the hotel. Highly recommend  (Our family were visiting from Sydney)MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>travelodgebell, Webmaster at Travelodge Inn &amp; Suites by Wyndham Bell Los Angeles Area, responded to this reviewResponded August 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2017</t>
+  </si>
+  <si>
+    <t>Central location to all attractions including Downtown, Disneyland, Universal Studios. Heard negative about ' Bell' area but this location and hotel were very good and safe. Hotel staff helped with directions and local information.Saw lots of families with kids for breakfast in the morning in the hotel. Highly recommend  (Our family were visiting from Sydney)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r499252415-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>499252415</t>
+  </si>
+  <si>
+    <t>07/06/2017</t>
+  </si>
+  <si>
+    <t>Great service</t>
+  </si>
+  <si>
+    <t>Always such a smooth check in even when checking in at midnight.   Usually get the Jacuzzi suite which I love. When I can for extra sheets they bring them to my room in a timely matter. No problems at all when checking out. Enjoy staying here. MoreShow less</t>
+  </si>
+  <si>
+    <t>travelodgebell, Webmaster at Travelodge Inn &amp; Suites by Wyndham Bell Los Angeles Area, responded to this reviewResponded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Always such a smooth check in even when checking in at midnight.   Usually get the Jacuzzi suite which I love. When I can for extra sheets they bring them to my room in a timely matter. No problems at all when checking out. Enjoy staying here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r497561239-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>497561239</t>
+  </si>
+  <si>
+    <t>06/30/2017</t>
+  </si>
+  <si>
+    <t>Great experience on first night in LA</t>
+  </si>
+  <si>
+    <t>We've stayed at Travelodge Inn for only one night, but were more than happy when experiencing this place. Great location, nice rooms and both of that for a good price. The breakfast was lovely too. Can recommend this place for a couple of nights. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>travelodgebell, Webmaster at Travelodge Inn &amp; Suites by Wyndham Bell Los Angeles Area, responded to this reviewResponded July 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2017</t>
+  </si>
+  <si>
+    <t>We've stayed at Travelodge Inn for only one night, but were more than happy when experiencing this place. Great location, nice rooms and both of that for a good price. The breakfast was lovely too. Can recommend this place for a couple of nights. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r488951495-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>488951495</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t>Worse stay ever</t>
+  </si>
+  <si>
+    <t>There was red or some thing of stain on the bed sheets. They are all over the sheets. Than there was stains on the pillows but no bed bugs. Than they didn't clean our room when we asked to be clean. The place is so nosey also. I heard ppl having a good time and we hear everything till 3 am. This place is always noisy. The only good thing is the location for food and bus. Make sure when taking bus or train, be here before 6 pm or you will be sorry. Lol. Book another hotel if u can. You have been warn.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>travelodgebell, Webmaster at Travelodge Inn &amp; Suites by Wyndham Bell Los Angeles Area, responded to this reviewResponded June 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2017</t>
+  </si>
+  <si>
+    <t>There was red or some thing of stain on the bed sheets. They are all over the sheets. Than there was stains on the pillows but no bed bugs. Than they didn't clean our room when we asked to be clean. The place is so nosey also. I heard ppl having a good time and we hear everything till 3 am. This place is always noisy. The only good thing is the location for food and bus. Make sure when taking bus or train, be here before 6 pm or you will be sorry. Lol. Book another hotel if u can. You have been warn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r483771701-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>483771701</t>
+  </si>
+  <si>
+    <t>05/12/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satisfactory stay </t>
+  </si>
+  <si>
+    <t>Stayed here for 3 nights and our room was clean and pleasant. Area is okay with a nice supermarket just down the road, we were quite far out from the "tourist parts" of L.A. and it took us around half hour to drive to things like the Hollywood sign etc but defiantly worth the price. :)MoreShow less</t>
+  </si>
+  <si>
+    <t>travelodgebell, Webmaster at Travelodge Inn &amp; Suites by Wyndham Bell Los Angeles Area, responded to this reviewResponded May 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 nights and our room was clean and pleasant. Area is okay with a nice supermarket just down the road, we were quite far out from the "tourist parts" of L.A. and it took us around half hour to drive to things like the Hollywood sign etc but defiantly worth the price. :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r477282509-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>477282509</t>
+  </si>
+  <si>
+    <t>04/19/2017</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>travelodgebell, Webmaster at Travelodge Inn &amp; Suites by Wyndham Bell Los Angeles Area, responded to this reviewResponded April 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r471461987-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>471461987</t>
+  </si>
+  <si>
+    <t>03/30/2017</t>
+  </si>
+  <si>
+    <t>Rooms not as shown in pictures. Not a good area.</t>
+  </si>
+  <si>
+    <t>Room smelled like bug spray and cigarettes. I booked non smoking but it gave me a smoking room. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>travelodgebell, Webmaster at Travelodge Inn &amp; Suites by Wyndham Bell Los Angeles Area, responded to this reviewResponded April 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2017</t>
+  </si>
+  <si>
+    <t>Room smelled like bug spray and cigarettes. I booked non smoking but it gave me a smoking room. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r471412108-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>471412108</t>
+  </si>
+  <si>
+    <t>Much Better Than Expected</t>
+  </si>
+  <si>
+    <t>After living in LA in the past, I was a little leery about staying in Bell, but this place was very clean and safe.  The man at the front desk even upgraded me on my second night to a King bed, non-smoking room since I accidentally put smoking room on my internet reservation.MoreShow less</t>
+  </si>
+  <si>
+    <t>After living in LA in the past, I was a little leery about staying in Bell, but this place was very clean and safe.  The man at the front desk even upgraded me on my second night to a King bed, non-smoking room since I accidentally put smoking room on my internet reservation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r466313108-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>466313108</t>
+  </si>
+  <si>
+    <t>03/11/2017</t>
+  </si>
+  <si>
+    <t>travelodgebell, Webmaster at Travelodge Inn &amp; Suites by Wyndham Bell Los Angeles Area, responded to this reviewResponded March 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r465398378-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>465398378</t>
+  </si>
+  <si>
+    <t>03/07/2017</t>
+  </si>
+  <si>
+    <t>travelodgebell, Webmaster at Travelodge Inn &amp; Suites by Wyndham Bell Los Angeles Area, responded to this reviewResponded March 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 10, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r464445165-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>464445165</t>
+  </si>
+  <si>
+    <t>03/04/2017</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Really nice comfortable stay very clean quiet and relaxing near by restaurant and many great dining places right next to hotelMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>travelodgebell, Webmaster at Travelodge Inn &amp; Suites by Wyndham Bell Los Angeles Area, responded to this reviewResponded March 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2017</t>
+  </si>
+  <si>
+    <t>Really nice comfortable stay very clean quiet and relaxing near by restaurant and many great dining places right next to hotelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r461684988-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>461684988</t>
+  </si>
+  <si>
+    <t>02/21/2017</t>
+  </si>
+  <si>
+    <t>Superb Value</t>
+  </si>
+  <si>
+    <t>Perfect if you have full days and just need a place to sleep.  The room was basic but clean and comfortable, and the staff was wonderful.  24 hour coffee/tea service and the continental breakfast were perfect for our needs.  It is a motor lodge style, so we could hear cars beeping as they were locked by late arrivals, but otherwise very quiet.  We were there several nights including the weekend and were impressed by how quiet it was.  Don't miss the lovely little garden by the back!MoreShow less</t>
+  </si>
+  <si>
+    <t>travelodgebell, Webmaster at Travelodge Inn &amp; Suites by Wyndham Bell Los Angeles Area, responded to this reviewResponded February 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2017</t>
+  </si>
+  <si>
+    <t>Perfect if you have full days and just need a place to sleep.  The room was basic but clean and comfortable, and the staff was wonderful.  24 hour coffee/tea service and the continental breakfast were perfect for our needs.  It is a motor lodge style, so we could hear cars beeping as they were locked by late arrivals, but otherwise very quiet.  We were there several nights including the weekend and were impressed by how quiet it was.  Don't miss the lovely little garden by the back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r454309720-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>454309720</t>
+  </si>
+  <si>
+    <t>01/23/2017</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>travelodgebell, Webmaster at Travelodge Inn &amp; Suites by Wyndham Bell Los Angeles Area, responded to this reviewResponded January 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r453267978-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>453267978</t>
+  </si>
+  <si>
+    <t>01/18/2017</t>
+  </si>
+  <si>
+    <t>It was perfect very clean and loved the room I stayed at the best Travel Lodge. Check in was easy. Bomb!!!</t>
+  </si>
+  <si>
+    <t>It was so perfect I would tell anybody that would be in the area that it is the best place to go. It was clean. My sleep was perfect and services was a 10 on my rate. It's the best one yet. MoreShow less</t>
+  </si>
+  <si>
+    <t>travelodgebell, Webmaster at Travelodge Inn &amp; Suites by Wyndham Bell Los Angeles Area, responded to this reviewResponded January 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2017</t>
+  </si>
+  <si>
+    <t>It was so perfect I would tell anybody that would be in the area that it is the best place to go. It was clean. My sleep was perfect and services was a 10 on my rate. It's the best one yet. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r451721526-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>451721526</t>
+  </si>
+  <si>
+    <t>01/13/2017</t>
+  </si>
+  <si>
+    <t>Nice clean stay!!</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for two nights! The staff was friendly, breakfast was fine and the area is quiet so we got a lot of sleep!! Would stay again and recommend to others MoreShow less</t>
+  </si>
+  <si>
+    <t>travelodgebell, Webmaster at Travelodge Inn &amp; Suites by Wyndham Bell Los Angeles Area, responded to this reviewResponded January 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2017</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for two nights! The staff was friendly, breakfast was fine and the area is quiet so we got a lot of sleep!! Would stay again and recommend to others More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r445775975-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>445775975</t>
+  </si>
+  <si>
+    <t>12/20/2016</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>travelodgebell, Webmaster at Travelodge Inn &amp; Suites by Wyndham Bell Los Angeles Area, responded to this reviewResponded December 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 23, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r444098915-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>444098915</t>
+  </si>
+  <si>
+    <t>12/13/2016</t>
+  </si>
+  <si>
+    <t>rodewaypasadena, General Manager at Travelodge Inn &amp; Suites by Wyndham Bell Los Angeles Area, responded to this reviewResponded December 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r443788323-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>443788323</t>
+  </si>
+  <si>
+    <t>12/12/2016</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>Well located, very well furnished and decorated refurbished rooms. Good service, decent breakfast and competitively priced. Only downside was noise - from landing aircraft, road traffic and, most annoyingly, plumbing from adjacent rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>Well located, very well furnished and decorated refurbished rooms. Good service, decent breakfast and competitively priced. Only downside was noise - from landing aircraft, road traffic and, most annoyingly, plumbing from adjacent rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r434346757-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>434346757</t>
+  </si>
+  <si>
+    <t>11/03/2016</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>travelodgebell, Webmaster at Travelodge Inn &amp; Suites by Wyndham Bell Los Angeles Area, responded to this reviewResponded November 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r429323330-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>429323330</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>travelodgebell, webmaster at Travelodge Inn &amp; Suites by Wyndham Bell Los Angeles Area, responded to this reviewResponded October 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r427002756-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>427002756</t>
+  </si>
+  <si>
+    <t>10/11/2016</t>
+  </si>
+  <si>
+    <t>travelodgebell, webmaster at Travelodge Inn &amp; Suites by Wyndham Bell Los Angeles Area, responded to this reviewResponded October 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r423198685-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>423198685</t>
+  </si>
+  <si>
+    <t>09/28/2016</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>travelodgebell, Webmaster at Travelodge Inn &amp; Suites by Wyndham Bell Los Angeles Area, responded to this reviewResponded October 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r421620413-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>421620413</t>
+  </si>
+  <si>
+    <t>09/23/2016</t>
+  </si>
+  <si>
+    <t>Good Quality for the money</t>
+  </si>
+  <si>
+    <t>I am very picky when it comes to choosing a hotel to spend a night. I work at a hotel myself as a front desk agent so when I am in need of one I do research to find only the best and make sure the price matches the quality. I had my eye on this one for a while and when I needed a room for a night I Drove 20 minutes to stay here. I made my way to the lobby and well I'm happy that I was quoted the same rate that was online. The front desk agent had no enthusiasm in him. I felt like he didn't want to repeat himself more than once. I'm sorry but if the guest needs something to be clarified you just have to. But anyways what it comes down for me is the room. My non-smoking room was just like I wanted it "smoke free" sometimes some rooms can be non-smoking but smell like smoke. The bathroom was nice looked newly renovated in the last couple years. Bed was not the comfiest but over all still able to get a good night sleep. A/C worked well, flat screen TV with lots of channels, Mini Fridge which was much bigger than some I've seen and the Mattress had a a zipped up mattress cover which tells me they care and take precautions against bed bugs. Overall the room was in a...I am very picky when it comes to choosing a hotel to spend a night. I work at a hotel myself as a front desk agent so when I am in need of one I do research to find only the best and make sure the price matches the quality. I had my eye on this one for a while and when I needed a room for a night I Drove 20 minutes to stay here. I made my way to the lobby and well I'm happy that I was quoted the same rate that was online. The front desk agent had no enthusiasm in him. I felt like he didn't want to repeat himself more than once. I'm sorry but if the guest needs something to be clarified you just have to. But anyways what it comes down for me is the room. My non-smoking room was just like I wanted it "smoke free" sometimes some rooms can be non-smoking but smell like smoke. The bathroom was nice looked newly renovated in the last couple years. Bed was not the comfiest but over all still able to get a good night sleep. A/C worked well, flat screen TV with lots of channels, Mini Fridge which was much bigger than some I've seen and the Mattress had a a zipped up mattress cover which tells me they care and take precautions against bed bugs. Overall the room was in a very good condition and I have no major problems with it. There is a lot of empty space in the room maybe adding a desk lamp or a couple of pictures on the wall would make the room stand out a bit more. But other than that room was clean and very worth the money I paid. This is a place I would not mind returning if I were to need a room again. Who knows maybe this review can get an upgrade next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am very picky when it comes to choosing a hotel to spend a night. I work at a hotel myself as a front desk agent so when I am in need of one I do research to find only the best and make sure the price matches the quality. I had my eye on this one for a while and when I needed a room for a night I Drove 20 minutes to stay here. I made my way to the lobby and well I'm happy that I was quoted the same rate that was online. The front desk agent had no enthusiasm in him. I felt like he didn't want to repeat himself more than once. I'm sorry but if the guest needs something to be clarified you just have to. But anyways what it comes down for me is the room. My non-smoking room was just like I wanted it "smoke free" sometimes some rooms can be non-smoking but smell like smoke. The bathroom was nice looked newly renovated in the last couple years. Bed was not the comfiest but over all still able to get a good night sleep. A/C worked well, flat screen TV with lots of channels, Mini Fridge which was much bigger than some I've seen and the Mattress had a a zipped up mattress cover which tells me they care and take precautions against bed bugs. Overall the room was in a...I am very picky when it comes to choosing a hotel to spend a night. I work at a hotel myself as a front desk agent so when I am in need of one I do research to find only the best and make sure the price matches the quality. I had my eye on this one for a while and when I needed a room for a night I Drove 20 minutes to stay here. I made my way to the lobby and well I'm happy that I was quoted the same rate that was online. The front desk agent had no enthusiasm in him. I felt like he didn't want to repeat himself more than once. I'm sorry but if the guest needs something to be clarified you just have to. But anyways what it comes down for me is the room. My non-smoking room was just like I wanted it "smoke free" sometimes some rooms can be non-smoking but smell like smoke. The bathroom was nice looked newly renovated in the last couple years. Bed was not the comfiest but over all still able to get a good night sleep. A/C worked well, flat screen TV with lots of channels, Mini Fridge which was much bigger than some I've seen and the Mattress had a a zipped up mattress cover which tells me they care and take precautions against bed bugs. Overall the room was in a very good condition and I have no major problems with it. There is a lot of empty space in the room maybe adding a desk lamp or a couple of pictures on the wall would make the room stand out a bit more. But other than that room was clean and very worth the money I paid. This is a place I would not mind returning if I were to need a room again. Who knows maybe this review can get an upgrade next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r418252035-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>418252035</t>
+  </si>
+  <si>
+    <t>09/13/2016</t>
+  </si>
+  <si>
+    <t>Staff needs to be re educated on hotel hospitality</t>
+  </si>
+  <si>
+    <t>Unfortunately we were in the area do to a funeral of a family member. We needed a place to stay and the hotel we always stay at was all booked up in long Beach Blvd. Which had fantastic customer service. When we check in the place looks kind of shotty there was junkies and hookers outside the area, but we tried it anyways. The interior was fairly nice and the outside was not that great. When I was checked in I was greeted nicely by the clerk and what looked like a bouncer just standing in the back of him. Not sure ive seen that before but I guess this place does what they want. My wife called at night to ask for a late check out and the guy tells her 12pm. So when the morning comes out they call her telling her we gotta be out by 11:30am or were getting charged 50 bucks. So we had to rush out of the place because he called us like 3 times to leave or they're gonna charge us like if it was their own personal piggy bank or something. When I went to check out I told em I didn't appreciate me having to rush my wife out of the room that way and then the same guy from the night comes with a bowl of food saying I'm a liar and hell show me the recording of the...Unfortunately we were in the area do to a funeral of a family member. We needed a place to stay and the hotel we always stay at was all booked up in long Beach Blvd. Which had fantastic customer service. When we check in the place looks kind of shotty there was junkies and hookers outside the area, but we tried it anyways. The interior was fairly nice and the outside was not that great. When I was checked in I was greeted nicely by the clerk and what looked like a bouncer just standing in the back of him. Not sure ive seen that before but I guess this place does what they want. My wife called at night to ask for a late check out and the guy tells her 12pm. So when the morning comes out they call her telling her we gotta be out by 11:30am or were getting charged 50 bucks. So we had to rush out of the place because he called us like 3 times to leave or they're gonna charge us like if it was their own personal piggy bank or something. When I went to check out I told em I didn't appreciate me having to rush my wife out of the room that way and then the same guy from the night comes with a bowl of food saying I'm a liar and hell show me the recording of the conversation to which he didn't show after all. Then he got next to me to say he said 1130 not 12. I said I didn't appreciate that and he needs to calm down and that it was very unprofessional and needs to learn better customer service. Definitely not stayk.g again, and  still waiting on Wyndham s response  MoreShow less</t>
+  </si>
+  <si>
+    <t>rodewaypasadena, General Manager at Travelodge Inn &amp; Suites by Wyndham Bell Los Angeles Area, responded to this reviewResponded September 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2016</t>
+  </si>
+  <si>
+    <t>Unfortunately we were in the area do to a funeral of a family member. We needed a place to stay and the hotel we always stay at was all booked up in long Beach Blvd. Which had fantastic customer service. When we check in the place looks kind of shotty there was junkies and hookers outside the area, but we tried it anyways. The interior was fairly nice and the outside was not that great. When I was checked in I was greeted nicely by the clerk and what looked like a bouncer just standing in the back of him. Not sure ive seen that before but I guess this place does what they want. My wife called at night to ask for a late check out and the guy tells her 12pm. So when the morning comes out they call her telling her we gotta be out by 11:30am or were getting charged 50 bucks. So we had to rush out of the place because he called us like 3 times to leave or they're gonna charge us like if it was their own personal piggy bank or something. When I went to check out I told em I didn't appreciate me having to rush my wife out of the room that way and then the same guy from the night comes with a bowl of food saying I'm a liar and hell show me the recording of the...Unfortunately we were in the area do to a funeral of a family member. We needed a place to stay and the hotel we always stay at was all booked up in long Beach Blvd. Which had fantastic customer service. When we check in the place looks kind of shotty there was junkies and hookers outside the area, but we tried it anyways. The interior was fairly nice and the outside was not that great. When I was checked in I was greeted nicely by the clerk and what looked like a bouncer just standing in the back of him. Not sure ive seen that before but I guess this place does what they want. My wife called at night to ask for a late check out and the guy tells her 12pm. So when the morning comes out they call her telling her we gotta be out by 11:30am or were getting charged 50 bucks. So we had to rush out of the place because he called us like 3 times to leave or they're gonna charge us like if it was their own personal piggy bank or something. When I went to check out I told em I didn't appreciate me having to rush my wife out of the room that way and then the same guy from the night comes with a bowl of food saying I'm a liar and hell show me the recording of the conversation to which he didn't show after all. Then he got next to me to say he said 1130 not 12. I said I didn't appreciate that and he needs to calm down and that it was very unprofessional and needs to learn better customer service. Definitely not stayk.g again, and  still waiting on Wyndham s response  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r407921949-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>407921949</t>
+  </si>
+  <si>
+    <t>08/20/2016</t>
+  </si>
+  <si>
+    <t>Ok for the price</t>
+  </si>
+  <si>
+    <t>The hotel has several pros and cons. For a budget hotel in LA the price and quality are decent. The double rooms have been recently renovated and they're nicer than the single, older ones, especially the barhrooms. Beds are comfortable but our bedcovers had holes in it. The windows in the first room we stayed weren't very clean and the hallway had a funky smell on the 2nd floor. The room decor looked a bit old and there was no full body mirror. Depending on what you want to do in LA this location might not be ideal. If you want to visit major attractions, or want to do some sightseeing, you'd need to rent a car or take a bus/taxi/uber as there's not much to see in this neighborhood (except really good Mexican restaurants). Staff was nice.  MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>travelodgebell, Webmaster at Travelodge Inn &amp; Suites by Wyndham Bell Los Angeles Area, responded to this reviewResponded August 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2016</t>
+  </si>
+  <si>
+    <t>The hotel has several pros and cons. For a budget hotel in LA the price and quality are decent. The double rooms have been recently renovated and they're nicer than the single, older ones, especially the barhrooms. Beds are comfortable but our bedcovers had holes in it. The windows in the first room we stayed weren't very clean and the hallway had a funky smell on the 2nd floor. The room decor looked a bit old and there was no full body mirror. Depending on what you want to do in LA this location might not be ideal. If you want to visit major attractions, or want to do some sightseeing, you'd need to rent a car or take a bus/taxi/uber as there's not much to see in this neighborhood (except really good Mexican restaurants). Staff was nice.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r400460978-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>400460978</t>
+  </si>
+  <si>
+    <t>08/02/2016</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r399672229-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>399672229</t>
+  </si>
+  <si>
+    <t>07/31/2016</t>
+  </si>
+  <si>
+    <t>Family Trip</t>
+  </si>
+  <si>
+    <t>I was in town from San Jose CA visiting family members. I was looking for something cheap but decent. Travelodge in Bell surpassed my expectations. We booked the jacuzzi room. It was a huge room. Everything was very clean and very comfy!  It was a romantic room! Highly recommend it. The check in was a bit dull. There were 3 middle eastern gentlemen in the front desk. I walked in and asked for my credit card and took a copy of it, which I thought was a bit sketchy. The gentlemen spoke amongst each other and laugh in their language. I felt uncomfortable. The room and facilities did make up for the bad check in. MoreShow less</t>
+  </si>
+  <si>
+    <t>travelodgebell, Webmaster at Travelodge Inn &amp; Suites by Wyndham Bell Los Angeles Area, responded to this reviewResponded September 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2016</t>
+  </si>
+  <si>
+    <t>I was in town from San Jose CA visiting family members. I was looking for something cheap but decent. Travelodge in Bell surpassed my expectations. We booked the jacuzzi room. It was a huge room. Everything was very clean and very comfy!  It was a romantic room! Highly recommend it. The check in was a bit dull. There were 3 middle eastern gentlemen in the front desk. I walked in and asked for my credit card and took a copy of it, which I thought was a bit sketchy. The gentlemen spoke amongst each other and laugh in their language. I felt uncomfortable. The room and facilities did make up for the bad check in. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r396299339-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>396299339</t>
+  </si>
+  <si>
+    <t>07/24/2016</t>
+  </si>
+  <si>
+    <t>The room smelled like urine and there were stains on the...</t>
+  </si>
+  <si>
+    <t>The room smelled like urine and there were stains on the comforter. The room was huge though and clean otherwise. MoreShow less</t>
+  </si>
+  <si>
+    <t>travelodgebell, Webmaster at Travelodge Inn &amp; Suites by Wyndham Bell Los Angeles Area, responded to this reviewResponded August 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2016</t>
+  </si>
+  <si>
+    <t>The room smelled like urine and there were stains on the comforter. The room was huge though and clean otherwise. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r394682226-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>394682226</t>
+  </si>
+  <si>
+    <t>07/20/2016</t>
+  </si>
+  <si>
+    <t>Family vacation</t>
+  </si>
+  <si>
+    <t>The hotel is very clean with updated rooms. We were in a king suite with a jacuzzi bath. Their was a separate living room space with microwave &amp; fridge &amp; table with chairs &amp; desk with chair. The couch pulled out to sofa bed. Bonus a 1/2 bath with decent counter space. The king room was separated by a closed door from the living area. Bed was comfy plenty of counter space. Large mirrors. Separate shower then a huge jacuzzi bath. The only negative for me was the breakfast. It was your typical continental meal. Cereal, donuts, muffins, fruit, instant oatmeal, juice, milk. No meat, nothing hot or cooked to enjoy. Overall was shocked at how nice the room was. You can tell they have put a lot of time into renovation in the rooms. MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is very clean with updated rooms. We were in a king suite with a jacuzzi bath. Their was a separate living room space with microwave &amp; fridge &amp; table with chairs &amp; desk with chair. The couch pulled out to sofa bed. Bonus a 1/2 bath with decent counter space. The king room was separated by a closed door from the living area. Bed was comfy plenty of counter space. Large mirrors. Separate shower then a huge jacuzzi bath. The only negative for me was the breakfast. It was your typical continental meal. Cereal, donuts, muffins, fruit, instant oatmeal, juice, milk. No meat, nothing hot or cooked to enjoy. Overall was shocked at how nice the room was. You can tell they have put a lot of time into renovation in the rooms. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r393760999-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>393760999</t>
+  </si>
+  <si>
+    <t>07/17/2016</t>
+  </si>
+  <si>
+    <t>5 stars</t>
+  </si>
+  <si>
+    <t>Great value for money. We stayed here for a week with no problems. Friendly staff and the gentleman at the reception was very helpful. Everywhere we went was within 40mins drive. Although we were told the location was a little dodgy my wife went for a walk most mornings without any hassles. MoreShow less</t>
+  </si>
+  <si>
+    <t>Great value for money. We stayed here for a week with no problems. Friendly staff and the gentleman at the reception was very helpful. Everywhere we went was within 40mins drive. Although we were told the location was a little dodgy my wife went for a walk most mornings without any hassles. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r384658425-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>384658425</t>
+  </si>
+  <si>
+    <t>06/21/2016</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>rodewaypasadena, General Manager at Travelodge Inn &amp; Suites by Wyndham Bell Los Angeles Area, responded to this reviewResponded June 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r383731839-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>383731839</t>
+  </si>
+  <si>
+    <t>06/18/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loved my stay! </t>
+  </si>
+  <si>
+    <t>Staff was helpful and very friendly. They helped me with a cheap rental car that I benefitted from tremendously. The location was convenient to major stores to grab things last minute as well. The only objective things I would add is: the luggage carry up stairs was a challenge but not impossible, and I would have loved more breakfast options. Otherwise 5 stars! Would stay again! MoreShow less</t>
+  </si>
+  <si>
+    <t>Staff was helpful and very friendly. They helped me with a cheap rental car that I benefitted from tremendously. The location was convenient to major stores to grab things last minute as well. The only objective things I would add is: the luggage carry up stairs was a challenge but not impossible, and I would have loved more breakfast options. Otherwise 5 stars! Would stay again! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r379674533-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>379674533</t>
+  </si>
+  <si>
+    <t>06/04/2016</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Place was clean, newly remodeled. Though not as quite as I would have preferred. Pleasant overall. I would recommend. Just don't expect much in the way of breakfast. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>rodewaypasadena, General Manager at Travelodge Inn &amp; Suites by Wyndham Bell Los Angeles Area, responded to this reviewResponded June 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2016</t>
+  </si>
+  <si>
+    <t>Place was clean, newly remodeled. Though not as quite as I would have preferred. Pleasant overall. I would recommend. Just don't expect much in the way of breakfast. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r369656961-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>369656961</t>
+  </si>
+  <si>
+    <t>05/02/2016</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>rodewaypasadena, Manager at Travelodge Inn &amp; Suites by Wyndham Bell Los Angeles Area, responded to this reviewResponded May 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r369426321-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>369426321</t>
+  </si>
+  <si>
+    <t>05/01/2016</t>
+  </si>
+  <si>
+    <t>Good for a night</t>
+  </si>
+  <si>
+    <t>Parking situation sucks and there's no elevator so if you get a 2nd floor room you have to lug all your stuff up the stairs.Otherwise the rooms are really not bad.Not bad in size. Bed was alright. Decent TV with good channel selection. Hotel was pretty quiet when I was there so that was nice.Not a bad stay for when you need something in a pinch.MoreShow less</t>
+  </si>
+  <si>
+    <t>travelodgebell, Webmaster at Travelodge Inn &amp; Suites by Wyndham Bell Los Angeles Area, responded to this reviewResponded May 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2016</t>
+  </si>
+  <si>
+    <t>Parking situation sucks and there's no elevator so if you get a 2nd floor room you have to lug all your stuff up the stairs.Otherwise the rooms are really not bad.Not bad in size. Bed was alright. Decent TV with good channel selection. Hotel was pretty quiet when I was there so that was nice.Not a bad stay for when you need something in a pinch.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r368860534-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>368860534</t>
+  </si>
+  <si>
+    <t>04/29/2016</t>
+  </si>
+  <si>
+    <t>Exceeded expectations</t>
+  </si>
+  <si>
+    <t>Previous occupant must have smoked in the nonsmoking room based on the initial smell but once notified the front office promptly arrived with something to remedy the situation then it was like it never happened, very pleased otherwise MoreShow less</t>
+  </si>
+  <si>
+    <t>Previous occupant must have smoked in the nonsmoking room based on the initial smell but once notified the front office promptly arrived with something to remedy the situation then it was like it never happened, very pleased otherwise More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r364977557-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>364977557</t>
+  </si>
+  <si>
+    <t>04/17/2016</t>
+  </si>
+  <si>
+    <t>Great Place but pretty far from Hollywood</t>
+  </si>
+  <si>
+    <t>Great clean place to stay.  The staff was very nice.  Hollywood was a 30 to 40 minute drive.  There was not sufficient parking in front of the rooms.  There were 3 or 4 handicap spaces in front of my room and security told me that I couldn't park there even though it was raining and late at night, so obviously three different handicap vehicles were not going to show up and take those spaces right in front of my door.  I had to park very far away and run through the rain getting soaking wet.  That was frustrating.  I never ate while I was there because I was gone a lot.  Other than the parking issue, everything was good.  MoreShow less</t>
+  </si>
+  <si>
+    <t>travelodgebell, Webmaster at Travelodge Inn &amp; Suites by Wyndham Bell Los Angeles Area, responded to this reviewResponded April 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2016</t>
+  </si>
+  <si>
+    <t>Great clean place to stay.  The staff was very nice.  Hollywood was a 30 to 40 minute drive.  There was not sufficient parking in front of the rooms.  There were 3 or 4 handicap spaces in front of my room and security told me that I couldn't park there even though it was raining and late at night, so obviously three different handicap vehicles were not going to show up and take those spaces right in front of my door.  I had to park very far away and run through the rain getting soaking wet.  That was frustrating.  I never ate while I was there because I was gone a lot.  Other than the parking issue, everything was good.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r363978535-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>363978535</t>
+  </si>
+  <si>
+    <t>04/13/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r361048450-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>361048450</t>
+  </si>
+  <si>
+    <t>04/02/2016</t>
+  </si>
+  <si>
+    <t>No respect.</t>
+  </si>
+  <si>
+    <t>Asked for no cleaning service. Asked for privacy while out for the day. Received the opposite. They changed my key, so could not enter my room. My curtains were left open, so all of my items were visible to any passerby. Very spurious. Had to go to front desk to have key recoded. Sheets were not clean upon arrival. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>travelodgebell, Webmaster at Travelodge Inn &amp; Suites by Wyndham Bell Los Angeles Area, responded to this reviewResponded April 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2016</t>
+  </si>
+  <si>
+    <t>Asked for no cleaning service. Asked for privacy while out for the day. Received the opposite. They changed my key, so could not enter my room. My curtains were left open, so all of my items were visible to any passerby. Very spurious. Had to go to front desk to have key recoded. Sheets were not clean upon arrival. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r354344628-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>354344628</t>
+  </si>
+  <si>
+    <t>03/10/2016</t>
+  </si>
+  <si>
+    <t>Nice clean property and quite</t>
+  </si>
+  <si>
+    <t>We would stay here again the price was right, and a good location.  But we feel the breakfast was a bit lacking on choice other than that it was fnieMoreShow less</t>
+  </si>
+  <si>
+    <t>travelodgebell, Webmaster at Travelodge Inn &amp; Suites by Wyndham Bell Los Angeles Area, responded to this reviewResponded March 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2016</t>
+  </si>
+  <si>
+    <t>We would stay here again the price was right, and a good location.  But we feel the breakfast was a bit lacking on choice other than that it was fnieMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r353875883-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>353875883</t>
+  </si>
+  <si>
+    <t>03/08/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r350019311-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
+  </si>
+  <si>
+    <t>350019311</t>
+  </si>
+  <si>
+    <t>02/22/2016</t>
+  </si>
+  <si>
+    <t>February 2016</t>
   </si>
 </sst>
 </file>
@@ -643,6 +1854,3903 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>87</v>
+      </c>
+      <c r="X7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>103</v>
+      </c>
+      <c r="X8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" t="s">
+        <v>77</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>110</v>
+      </c>
+      <c r="X9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>116</v>
+      </c>
+      <c r="O10" t="s">
+        <v>95</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>117</v>
+      </c>
+      <c r="X10" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" t="s">
+        <v>123</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>116</v>
+      </c>
+      <c r="O11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>124</v>
+      </c>
+      <c r="X11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" t="s">
+        <v>130</v>
+      </c>
+      <c r="L12" t="s">
+        <v>131</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>132</v>
+      </c>
+      <c r="X12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s">
+        <v>109</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>116</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>124</v>
+      </c>
+      <c r="X13" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" t="s">
+        <v>139</v>
+      </c>
+      <c r="K14" t="s">
+        <v>140</v>
+      </c>
+      <c r="L14" t="s">
+        <v>141</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>142</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>143</v>
+      </c>
+      <c r="X14" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15" t="s">
+        <v>148</v>
+      </c>
+      <c r="K15" t="s">
+        <v>149</v>
+      </c>
+      <c r="L15" t="s">
+        <v>150</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>142</v>
+      </c>
+      <c r="O15" t="s">
+        <v>77</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>143</v>
+      </c>
+      <c r="X15" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>153</v>
+      </c>
+      <c r="J16" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" t="s">
+        <v>155</v>
+      </c>
+      <c r="L16" t="s">
+        <v>156</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>157</v>
+      </c>
+      <c r="O16" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>158</v>
+      </c>
+      <c r="X16" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>162</v>
+      </c>
+      <c r="J17" t="s">
+        <v>163</v>
+      </c>
+      <c r="K17" t="s">
+        <v>164</v>
+      </c>
+      <c r="L17" t="s">
+        <v>165</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>166</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>167</v>
+      </c>
+      <c r="X17" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>171</v>
+      </c>
+      <c r="J18" t="s">
+        <v>172</v>
+      </c>
+      <c r="K18" t="s">
+        <v>173</v>
+      </c>
+      <c r="L18" t="s">
+        <v>174</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>166</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>175</v>
+      </c>
+      <c r="X18" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>178</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>179</v>
+      </c>
+      <c r="J19" t="s">
+        <v>180</v>
+      </c>
+      <c r="K19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L19" t="s">
+        <v>182</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>183</v>
+      </c>
+      <c r="O19" t="s">
+        <v>184</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>185</v>
+      </c>
+      <c r="X19" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>189</v>
+      </c>
+      <c r="J20" t="s">
+        <v>190</v>
+      </c>
+      <c r="K20" t="s">
+        <v>191</v>
+      </c>
+      <c r="L20" t="s">
+        <v>192</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>193</v>
+      </c>
+      <c r="O20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>194</v>
+      </c>
+      <c r="X20" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>198</v>
+      </c>
+      <c r="J21" t="s">
+        <v>199</v>
+      </c>
+      <c r="K21" t="s">
+        <v>200</v>
+      </c>
+      <c r="L21" t="s">
+        <v>201</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>193</v>
+      </c>
+      <c r="O21" t="s">
+        <v>77</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>202</v>
+      </c>
+      <c r="X21" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>205</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>206</v>
+      </c>
+      <c r="J22" t="s">
+        <v>207</v>
+      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s">
+        <v>109</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>208</v>
+      </c>
+      <c r="O22" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>209</v>
+      </c>
+      <c r="X22" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>211</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>212</v>
+      </c>
+      <c r="J23" t="s">
+        <v>213</v>
+      </c>
+      <c r="K23" t="s">
+        <v>214</v>
+      </c>
+      <c r="L23" t="s">
+        <v>215</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>216</v>
+      </c>
+      <c r="O23" t="s">
+        <v>77</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>217</v>
+      </c>
+      <c r="X23" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>220</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J24" t="s">
+        <v>213</v>
+      </c>
+      <c r="K24" t="s">
+        <v>222</v>
+      </c>
+      <c r="L24" t="s">
+        <v>223</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>216</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>217</v>
+      </c>
+      <c r="X24" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>225</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>226</v>
+      </c>
+      <c r="J25" t="s">
+        <v>227</v>
+      </c>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s">
+        <v>109</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>216</v>
+      </c>
+      <c r="O25" t="s">
+        <v>95</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>228</v>
+      </c>
+      <c r="X25" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>230</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>231</v>
+      </c>
+      <c r="J26" t="s">
+        <v>232</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s">
+        <v>109</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>216</v>
+      </c>
+      <c r="O26" t="s">
+        <v>61</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>233</v>
+      </c>
+      <c r="X26" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>235</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>236</v>
+      </c>
+      <c r="J27" t="s">
+        <v>237</v>
+      </c>
+      <c r="K27" t="s">
+        <v>238</v>
+      </c>
+      <c r="L27" t="s">
+        <v>239</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>240</v>
+      </c>
+      <c r="O27" t="s">
+        <v>77</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>241</v>
+      </c>
+      <c r="X27" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>244</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>245</v>
+      </c>
+      <c r="J28" t="s">
+        <v>246</v>
+      </c>
+      <c r="K28" t="s">
+        <v>247</v>
+      </c>
+      <c r="L28" t="s">
+        <v>248</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>240</v>
+      </c>
+      <c r="O28" t="s">
+        <v>77</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>249</v>
+      </c>
+      <c r="X28" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>252</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>253</v>
+      </c>
+      <c r="J29" t="s">
+        <v>254</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s">
+        <v>109</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>255</v>
+      </c>
+      <c r="O29" t="s">
+        <v>61</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>256</v>
+      </c>
+      <c r="X29" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>258</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>259</v>
+      </c>
+      <c r="J30" t="s">
+        <v>260</v>
+      </c>
+      <c r="K30" t="s">
+        <v>261</v>
+      </c>
+      <c r="L30" t="s">
+        <v>262</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>255</v>
+      </c>
+      <c r="O30" t="s">
+        <v>95</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>263</v>
+      </c>
+      <c r="X30" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>266</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>267</v>
+      </c>
+      <c r="J31" t="s">
+        <v>268</v>
+      </c>
+      <c r="K31" t="s">
+        <v>269</v>
+      </c>
+      <c r="L31" t="s">
+        <v>270</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>255</v>
+      </c>
+      <c r="O31" t="s">
+        <v>77</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>271</v>
+      </c>
+      <c r="X31" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>274</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>275</v>
+      </c>
+      <c r="J32" t="s">
+        <v>276</v>
+      </c>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s">
+        <v>109</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>277</v>
+      </c>
+      <c r="O32" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>278</v>
+      </c>
+      <c r="X32" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>280</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>281</v>
+      </c>
+      <c r="J33" t="s">
+        <v>282</v>
+      </c>
+      <c r="K33" t="s"/>
+      <c r="L33" t="s">
+        <v>109</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>277</v>
+      </c>
+      <c r="O33" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>283</v>
+      </c>
+      <c r="X33" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>285</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>286</v>
+      </c>
+      <c r="J34" t="s">
+        <v>287</v>
+      </c>
+      <c r="K34" t="s">
+        <v>288</v>
+      </c>
+      <c r="L34" t="s">
+        <v>289</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>277</v>
+      </c>
+      <c r="O34" t="s">
+        <v>61</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>283</v>
+      </c>
+      <c r="X34" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>291</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>292</v>
+      </c>
+      <c r="J35" t="s">
+        <v>293</v>
+      </c>
+      <c r="K35" t="s"/>
+      <c r="L35" t="s">
+        <v>109</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>294</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>295</v>
+      </c>
+      <c r="X35" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>297</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>298</v>
+      </c>
+      <c r="J36" t="s">
+        <v>299</v>
+      </c>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s">
+        <v>109</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>294</v>
+      </c>
+      <c r="O36" t="s">
+        <v>184</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>300</v>
+      </c>
+      <c r="X36" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>302</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>303</v>
+      </c>
+      <c r="J37" t="s">
+        <v>304</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s">
+        <v>109</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>294</v>
+      </c>
+      <c r="O37" t="s">
+        <v>184</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>305</v>
+      </c>
+      <c r="X37" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>307</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>308</v>
+      </c>
+      <c r="J38" t="s">
+        <v>309</v>
+      </c>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s">
+        <v>109</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>310</v>
+      </c>
+      <c r="O38" t="s">
+        <v>77</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>311</v>
+      </c>
+      <c r="X38" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>313</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>314</v>
+      </c>
+      <c r="J39" t="s">
+        <v>315</v>
+      </c>
+      <c r="K39" t="s">
+        <v>316</v>
+      </c>
+      <c r="L39" t="s">
+        <v>317</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>310</v>
+      </c>
+      <c r="O39" t="s">
+        <v>77</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>311</v>
+      </c>
+      <c r="X39" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>319</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>320</v>
+      </c>
+      <c r="J40" t="s">
+        <v>321</v>
+      </c>
+      <c r="K40" t="s">
+        <v>322</v>
+      </c>
+      <c r="L40" t="s">
+        <v>323</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>310</v>
+      </c>
+      <c r="O40" t="s">
+        <v>52</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>324</v>
+      </c>
+      <c r="X40" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>327</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>328</v>
+      </c>
+      <c r="J41" t="s">
+        <v>329</v>
+      </c>
+      <c r="K41" t="s">
+        <v>330</v>
+      </c>
+      <c r="L41" t="s">
+        <v>331</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>332</v>
+      </c>
+      <c r="O41" t="s">
+        <v>52</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>333</v>
+      </c>
+      <c r="X41" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>336</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>337</v>
+      </c>
+      <c r="J42" t="s">
+        <v>338</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s">
+        <v>109</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>339</v>
+      </c>
+      <c r="O42" t="s">
+        <v>52</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>333</v>
+      </c>
+      <c r="X42" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>340</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>341</v>
+      </c>
+      <c r="J43" t="s">
+        <v>342</v>
+      </c>
+      <c r="K43" t="s">
+        <v>343</v>
+      </c>
+      <c r="L43" t="s">
+        <v>344</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>339</v>
+      </c>
+      <c r="O43" t="s">
+        <v>77</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>345</v>
+      </c>
+      <c r="X43" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>348</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>349</v>
+      </c>
+      <c r="J44" t="s">
+        <v>350</v>
+      </c>
+      <c r="K44" t="s">
+        <v>351</v>
+      </c>
+      <c r="L44" t="s">
+        <v>352</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>339</v>
+      </c>
+      <c r="O44" t="s">
+        <v>52</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>353</v>
+      </c>
+      <c r="X44" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>356</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>357</v>
+      </c>
+      <c r="J45" t="s">
+        <v>358</v>
+      </c>
+      <c r="K45" t="s">
+        <v>359</v>
+      </c>
+      <c r="L45" t="s">
+        <v>360</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>339</v>
+      </c>
+      <c r="O45" t="s">
+        <v>52</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>353</v>
+      </c>
+      <c r="X45" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>362</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>363</v>
+      </c>
+      <c r="J46" t="s">
+        <v>364</v>
+      </c>
+      <c r="K46" t="s">
+        <v>365</v>
+      </c>
+      <c r="L46" t="s">
+        <v>366</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>339</v>
+      </c>
+      <c r="O46" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>353</v>
+      </c>
+      <c r="X46" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>368</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>369</v>
+      </c>
+      <c r="J47" t="s">
+        <v>370</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s">
+        <v>109</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>371</v>
+      </c>
+      <c r="O47" t="s">
+        <v>52</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>372</v>
+      </c>
+      <c r="X47" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>374</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>375</v>
+      </c>
+      <c r="J48" t="s">
+        <v>376</v>
+      </c>
+      <c r="K48" t="s">
+        <v>377</v>
+      </c>
+      <c r="L48" t="s">
+        <v>378</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>371</v>
+      </c>
+      <c r="O48" t="s">
+        <v>61</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>372</v>
+      </c>
+      <c r="X48" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>380</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>381</v>
+      </c>
+      <c r="J49" t="s">
+        <v>382</v>
+      </c>
+      <c r="K49" t="s">
+        <v>383</v>
+      </c>
+      <c r="L49" t="s">
+        <v>384</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>385</v>
+      </c>
+      <c r="O49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>386</v>
+      </c>
+      <c r="X49" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>389</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>390</v>
+      </c>
+      <c r="J50" t="s">
+        <v>391</v>
+      </c>
+      <c r="K50" t="s"/>
+      <c r="L50" t="s">
+        <v>109</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>392</v>
+      </c>
+      <c r="O50" t="s">
+        <v>61</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>393</v>
+      </c>
+      <c r="X50" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>395</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>396</v>
+      </c>
+      <c r="J51" t="s">
+        <v>397</v>
+      </c>
+      <c r="K51" t="s">
+        <v>398</v>
+      </c>
+      <c r="L51" t="s">
+        <v>399</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>385</v>
+      </c>
+      <c r="O51" t="s">
+        <v>95</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>400</v>
+      </c>
+      <c r="X51" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>403</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>404</v>
+      </c>
+      <c r="J52" t="s">
+        <v>405</v>
+      </c>
+      <c r="K52" t="s">
+        <v>406</v>
+      </c>
+      <c r="L52" t="s">
+        <v>407</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>392</v>
+      </c>
+      <c r="O52" t="s">
+        <v>184</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>400</v>
+      </c>
+      <c r="X52" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>409</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>410</v>
+      </c>
+      <c r="J53" t="s">
+        <v>411</v>
+      </c>
+      <c r="K53" t="s">
+        <v>412</v>
+      </c>
+      <c r="L53" t="s">
+        <v>413</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>392</v>
+      </c>
+      <c r="O53" t="s">
+        <v>184</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>414</v>
+      </c>
+      <c r="X53" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>417</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>418</v>
+      </c>
+      <c r="J54" t="s">
+        <v>419</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s">
+        <v>109</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>392</v>
+      </c>
+      <c r="O54" t="s">
+        <v>184</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>414</v>
+      </c>
+      <c r="X54" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>420</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>421</v>
+      </c>
+      <c r="J55" t="s">
+        <v>422</v>
+      </c>
+      <c r="K55" t="s">
+        <v>423</v>
+      </c>
+      <c r="L55" t="s">
+        <v>424</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>425</v>
+      </c>
+      <c r="O55" t="s">
+        <v>61</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>426</v>
+      </c>
+      <c r="X55" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>429</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>430</v>
+      </c>
+      <c r="J56" t="s">
+        <v>431</v>
+      </c>
+      <c r="K56" t="s">
+        <v>432</v>
+      </c>
+      <c r="L56" t="s">
+        <v>433</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>425</v>
+      </c>
+      <c r="O56" t="s">
+        <v>77</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>434</v>
+      </c>
+      <c r="X56" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>437</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>438</v>
+      </c>
+      <c r="J57" t="s">
+        <v>439</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s">
+        <v>109</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>425</v>
+      </c>
+      <c r="O57" t="s">
+        <v>184</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>434</v>
+      </c>
+      <c r="X57" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>7176</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>440</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>441</v>
+      </c>
+      <c r="J58" t="s">
+        <v>442</v>
+      </c>
+      <c r="K58" t="s"/>
+      <c r="L58" t="s">
+        <v>109</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>443</v>
+      </c>
+      <c r="O58" t="s">
+        <v>184</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>434</v>
+      </c>
+      <c r="X58" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_784.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_784.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="501">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>SAMARTH P</t>
+  </si>
+  <si>
     <t>07/12/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>We stayed at Travelodge for our vacation and had a Jacuzzi suite,the room was nice and big.free breakfast and free WiFi &amp; parking.staff was very welcoming..they have security guard in the night,we felt safe(if you are with your family security is main concern). everyday room service..on walking distance they have good restaurant.and very convenient to reach all LA tourist place because Travelodge is in the center of all places.More</t>
   </si>
   <si>
+    <t>chilto797945</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r582267662-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>I have been traveling to L.A. several times a year for almost 2 decades. I have tried numerous hotel/motels and non compare with this one. It is clean, very friendly and helpful staff. The lobby is open 24 hours and has free coffee.More</t>
   </si>
   <si>
+    <t>shreyashghariwala</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r577590420-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -231,6 +240,9 @@
     <t>My experience with the hotel was really amazing. I had a warm welcome from the staff, nice and clean rooms, very good, fresh and healthy breakfast, spacious parking, nearby grocery stores and many restaurants. Over all I liked the place and will surely visit again soon.More</t>
   </si>
   <si>
+    <t>KingTrojans1013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r569505355-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -261,6 +273,9 @@
     <t>The customer service was horrible. I complained about the carpet smelling like urine and the T.V. not being clear and the management refused to change my room accommodations. The Hotels.com app asked me to do a survey shortly after checking in and I decided to mention this in my post. The hotel management received the negative review and decided to kick me out of the hotel all without attempting to help me with my room arrangements or service needs. This is the most unprofessional Travelodge in the world. I would never recommend this place to anyone. I am greatly disappointed in the Management and in the Hotels.com members for allowing this embarrassment to happen.More</t>
   </si>
   <si>
+    <t>695lazarav</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r550231324-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -288,6 +303,9 @@
     <t>The hotel pictures were marvelous when compared to the actual appearance of the hotel, and the hotel guestroom. This hotel needs much improvement. Though the staff was helpful, the room was overpriced for the condition it was in. My partner and I stayed in a King Suite, and it felt like a low-budget motel room. The internet was terrible; I could not even watch a movie on my laptop. There were stains on the walls and carpet. It was just simply unkempt. We will not ever be returning to this establishment. More</t>
   </si>
   <si>
+    <t>J9539DWjims</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r549617839-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -309,6 +327,9 @@
     <t>I was in California for a six day trip to look the area over for a potential move. The hotel fit the bill for price and location. The room was a queen suite which they upgraded me to at no additional charge. The staff were pleasant and helpful I would definitely stay there again.More</t>
   </si>
   <si>
+    <t>vorbis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r543856274-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -336,6 +357,9 @@
     <t>I stay here all the time because the property was recently renovated. It's nice, clean and inexpensive.More</t>
   </si>
   <si>
+    <t>halid741</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r541431602-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -357,6 +381,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>Maria G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r540246737-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -375,6 +402,9 @@
     <t>Responded November 13, 2017</t>
   </si>
   <si>
+    <t>livinsloher</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r534638303-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -397,6 +427,9 @@
   </si>
   <si>
     <t>There is no pool or jacuzzi. It is  my opinion that the water feature they have in the far back corner they should put in a huge Jacuzzi in place because who really sees at water feature? The rooms were comfortable the staff was excellent and the rooms were clean and I stay a lot of places. Well worth the moneyMore</t>
+  </si>
+  <si>
+    <t>JustAFlightAttendant</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r533894725-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
@@ -431,12 +464,18 @@
 As I was travelling with a young child before we checked out I did a quick sweep of our room to make sure we hadn't left anything behind. Just around the base of the bed I found food &amp; wrappers (not...I am by no means an expert but I AM a flight attendant and in 10 years of flying I have stayed in many, many hotels. For the most part the staff was polite but the property left much to be desired. I can handle old and out dated, which it was. I can handle minor disrepair, which there was. What I can't handle is uncleanliness and not feeling entirely safe. The hotel is not in a great neighbourhood, which people from out of the country may not know. It is two levels with no elevators, which was fine for us but would be a challenge for others. It is and outdoor mezzanine style building which means you can't open your drapes without people walking to and from their rooms being able to see right into your room. The dead bolt on our door was inoperable so apart from the electronic key entry the only security was the swinging door latch which still allows others to get your door open 4-5 inches! Because the walls were so thin I could hear the guests beside us fighting with their deadbolt and expressing their dismay until they also finally gave up. As I was travelling with a young child before we checked out I did a quick sweep of our room to make sure we hadn't left anything behind. Just around the base of the bed I found food &amp; wrappers (not ours), a dollar in US change (not ours) and a second tv remote! ... clearly the linen had not been moved and the room not vacuumed since the last guest. The continental breakfast was pretty lack lustre to boot. Lesson learned. More</t>
   </si>
   <si>
+    <t>Jabaree B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r533843966-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
     <t>533843966</t>
   </si>
   <si>
+    <t>122celesteg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r525761887-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -464,6 +503,9 @@
     <t>Over all good stay, would recommend to friends and family. The only thing that we were not satisfied with was breakfast.More</t>
   </si>
   <si>
+    <t>TriBrowns</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r525269891-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -482,6 +524,9 @@
     <t>You can never control the noise of fellow stayers, but we found overall the noise level from the road was minimal. The room was very clean and adequate for our needs. The only criticism I would have is the lack of seating for breakfast. There are four big tables, and no small ones for the numerous couples who were there. Other Travelodges we have stayed in, tended to have more tables for two. Breakfast was ok, typical American fare.Would have no hesitation in staying here again if the need arose. We chose this place for price and convenience to Citadel Outlets.More</t>
   </si>
   <si>
+    <t>galean0j</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r514956473-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -509,6 +554,9 @@
     <t>So I booked august 14th the room was fine clean bathroom clean bed no problems! Pretty clean for a smoking room! So I decided to book for another night which I booked for the following night mind me I work from 1:30 p.m - 9:00 p.m. Their check-in time is 3:00 p.m I got to the hotel around 12:47 a.m to check-in I end up getting told that my reservation was canceled because my room was wrecked! That I had a party And that my boyfriend was there that I'm blocked from booking with them when me and my boyfriend were never there they were just accusing us I never got the room I went the next morning to speak to a supervisor he was no help all he said was talk to the supervisor in the afternoon I work afternoon ! None of them helped me! I was charged and asked them for a refund because I never checked in I had to book another hotel it was horrible!!!More</t>
   </si>
   <si>
+    <t>Aussie2030</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r505693617-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -536,6 +584,9 @@
     <t>Central location to all attractions including Downtown, Disneyland, Universal Studios. Heard negative about ' Bell' area but this location and hotel were very good and safe. Hotel staff helped with directions and local information.Saw lots of families with kids for breakfast in the morning in the hotel. Highly recommend  (Our family were visiting from Sydney)More</t>
   </si>
   <si>
+    <t>540myrnab</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r499252415-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -560,6 +611,9 @@
     <t>Always such a smooth check in even when checking in at midnight.   Usually get the Jacuzzi suite which I love. When I can for extra sheets they bring them to my room in a timely matter. No problems at all when checking out. Enjoy staying here. More</t>
   </si>
   <si>
+    <t>Julia F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r497561239-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -590,6 +644,9 @@
     <t>We've stayed at Travelodge Inn for only one night, but were more than happy when experiencing this place. Great location, nice rooms and both of that for a good price. The breakfast was lovely too. Can recommend this place for a couple of nights. More</t>
   </si>
   <si>
+    <t>alvin916</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r488951495-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -617,6 +674,9 @@
     <t>There was red or some thing of stain on the bed sheets. They are all over the sheets. Than there was stains on the pillows but no bed bugs. Than they didn't clean our room when we asked to be clean. The place is so nosey also. I heard ppl having a good time and we hear everything till 3 am. This place is always noisy. The only good thing is the location for food and bus. Make sure when taking bus or train, be here before 6 pm or you will be sorry. Lol. Book another hotel if u can. You have been warn.More</t>
   </si>
   <si>
+    <t>natasha c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r483771701-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -641,6 +701,9 @@
     <t>Stayed here for 3 nights and our room was clean and pleasant. Area is okay with a nice supermarket just down the road, we were quite far out from the "tourist parts" of L.A. and it took us around half hour to drive to things like the Hollywood sign etc but defiantly worth the price. :)More</t>
   </si>
   <si>
+    <t>amanter2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r477282509-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -659,6 +722,9 @@
     <t>Responded April 21, 2017</t>
   </si>
   <si>
+    <t>monalisar705</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r471461987-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -686,6 +752,9 @@
     <t>Room smelled like bug spray and cigarettes. I booked non smoking but it gave me a smoking room. More</t>
   </si>
   <si>
+    <t>Sherry55 S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r471412108-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -701,6 +770,9 @@
     <t>After living in LA in the past, I was a little leery about staying in Bell, but this place was very clean and safe.  The man at the front desk even upgraded me on my second night to a King bed, non-smoking room since I accidentally put smoking room on my internet reservation.More</t>
   </si>
   <si>
+    <t>marcusb369</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r466313108-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -716,6 +788,9 @@
     <t>Responded March 14, 2017</t>
   </si>
   <si>
+    <t>nyamori2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r465398378-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -731,6 +806,9 @@
     <t>Responded March 10, 2017</t>
   </si>
   <si>
+    <t>robertomM3079BO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r464445165-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -758,6 +836,9 @@
     <t>Really nice comfortable stay very clean quiet and relaxing near by restaurant and many great dining places right next to hotelMore</t>
   </si>
   <si>
+    <t>Katie400</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r461684988-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -782,6 +863,9 @@
     <t>Perfect if you have full days and just need a place to sleep.  The room was basic but clean and comfortable, and the staff was wonderful.  24 hour coffee/tea service and the continental breakfast were perfect for our needs.  It is a motor lodge style, so we could hear cars beeping as they were locked by late arrivals, but otherwise very quiet.  We were there several nights including the weekend and were impressed by how quiet it was.  Don't miss the lovely little garden by the back!More</t>
   </si>
   <si>
+    <t>alankS3061TO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r454309720-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -800,6 +884,9 @@
     <t>Responded January 27, 2017</t>
   </si>
   <si>
+    <t>keygerc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r453267978-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -824,6 +911,9 @@
     <t>It was so perfect I would tell anybody that would be in the area that it is the best place to go. It was clean. My sleep was perfect and services was a 10 on my rate. It's the best one yet. More</t>
   </si>
   <si>
+    <t>jabbarw2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r451721526-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -848,6 +938,9 @@
     <t>We stayed at this hotel for two nights! The staff was friendly, breakfast was fine and the area is quiet so we got a lot of sleep!! Would stay again and recommend to others More</t>
   </si>
   <si>
+    <t>E1388WVtimd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r445775975-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -866,6 +959,9 @@
     <t>Responded December 23, 2016</t>
   </si>
   <si>
+    <t>Priscilla R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r444098915-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -881,6 +977,9 @@
     <t>Responded December 14, 2016</t>
   </si>
   <si>
+    <t>andrewbF7331EF</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r443788323-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -899,6 +998,9 @@
     <t>Well located, very well furnished and decorated refurbished rooms. Good service, decent breakfast and competitively priced. Only downside was noise - from landing aircraft, road traffic and, most annoyingly, plumbing from adjacent rooms.More</t>
   </si>
   <si>
+    <t>Richard P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r434346757-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -917,6 +1019,9 @@
     <t>Responded November 7, 2016</t>
   </si>
   <si>
+    <t>ashleygQ9242ZD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r429323330-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -932,6 +1037,9 @@
     <t>Responded October 21, 2016</t>
   </si>
   <si>
+    <t>305leisham</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r427002756-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -947,6 +1055,9 @@
     <t>Responded October 14, 2016</t>
   </si>
   <si>
+    <t>JxsocalxH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r423198685-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -965,6 +1076,9 @@
     <t>Responded October 1, 2016</t>
   </si>
   <si>
+    <t>Angel V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r421620413-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -983,6 +1097,9 @@
     <t>I am very picky when it comes to choosing a hotel to spend a night. I work at a hotel myself as a front desk agent so when I am in need of one I do research to find only the best and make sure the price matches the quality. I had my eye on this one for a while and when I needed a room for a night I Drove 20 minutes to stay here. I made my way to the lobby and well I'm happy that I was quoted the same rate that was online. The front desk agent had no enthusiasm in him. I felt like he didn't want to repeat himself more than once. I'm sorry but if the guest needs something to be clarified you just have to. But anyways what it comes down for me is the room. My non-smoking room was just like I wanted it "smoke free" sometimes some rooms can be non-smoking but smell like smoke. The bathroom was nice looked newly renovated in the last couple years. Bed was not the comfiest but over all still able to get a good night sleep. A/C worked well, flat screen TV with lots of channels, Mini Fridge which was much bigger than some I've seen and the Mattress had a a zipped up mattress cover which tells me they care and take precautions against bed bugs. Overall the room was in a...I am very picky when it comes to choosing a hotel to spend a night. I work at a hotel myself as a front desk agent so when I am in need of one I do research to find only the best and make sure the price matches the quality. I had my eye on this one for a while and when I needed a room for a night I Drove 20 minutes to stay here. I made my way to the lobby and well I'm happy that I was quoted the same rate that was online. The front desk agent had no enthusiasm in him. I felt like he didn't want to repeat himself more than once. I'm sorry but if the guest needs something to be clarified you just have to. But anyways what it comes down for me is the room. My non-smoking room was just like I wanted it "smoke free" sometimes some rooms can be non-smoking but smell like smoke. The bathroom was nice looked newly renovated in the last couple years. Bed was not the comfiest but over all still able to get a good night sleep. A/C worked well, flat screen TV with lots of channels, Mini Fridge which was much bigger than some I've seen and the Mattress had a a zipped up mattress cover which tells me they care and take precautions against bed bugs. Overall the room was in a very good condition and I have no major problems with it. There is a lot of empty space in the room maybe adding a desk lamp or a couple of pictures on the wall would make the room stand out a bit more. But other than that room was clean and very worth the money I paid. This is a place I would not mind returning if I were to need a room again. Who knows maybe this review can get an upgrade next time.More</t>
   </si>
   <si>
+    <t>katkiller13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r418252035-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -1007,6 +1124,9 @@
     <t>Unfortunately we were in the area do to a funeral of a family member. We needed a place to stay and the hotel we always stay at was all booked up in long Beach Blvd. Which had fantastic customer service. When we check in the place looks kind of shotty there was junkies and hookers outside the area, but we tried it anyways. The interior was fairly nice and the outside was not that great. When I was checked in I was greeted nicely by the clerk and what looked like a bouncer just standing in the back of him. Not sure ive seen that before but I guess this place does what they want. My wife called at night to ask for a late check out and the guy tells her 12pm. So when the morning comes out they call her telling her we gotta be out by 11:30am or were getting charged 50 bucks. So we had to rush out of the place because he called us like 3 times to leave or they're gonna charge us like if it was their own personal piggy bank or something. When I went to check out I told em I didn't appreciate me having to rush my wife out of the room that way and then the same guy from the night comes with a bowl of food saying I'm a liar and hell show me the recording of the...Unfortunately we were in the area do to a funeral of a family member. We needed a place to stay and the hotel we always stay at was all booked up in long Beach Blvd. Which had fantastic customer service. When we check in the place looks kind of shotty there was junkies and hookers outside the area, but we tried it anyways. The interior was fairly nice and the outside was not that great. When I was checked in I was greeted nicely by the clerk and what looked like a bouncer just standing in the back of him. Not sure ive seen that before but I guess this place does what they want. My wife called at night to ask for a late check out and the guy tells her 12pm. So when the morning comes out they call her telling her we gotta be out by 11:30am or were getting charged 50 bucks. So we had to rush out of the place because he called us like 3 times to leave or they're gonna charge us like if it was their own personal piggy bank or something. When I went to check out I told em I didn't appreciate me having to rush my wife out of the room that way and then the same guy from the night comes with a bowl of food saying I'm a liar and hell show me the recording of the conversation to which he didn't show after all. Then he got next to me to say he said 1130 not 12. I said I didn't appreciate that and he needs to calm down and that it was very unprofessional and needs to learn better customer service. Definitely not stayk.g again, and  still waiting on Wyndham s response  More</t>
   </si>
   <si>
+    <t>thepetitetraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r407921949-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -1034,6 +1154,9 @@
     <t>The hotel has several pros and cons. For a budget hotel in LA the price and quality are decent. The double rooms have been recently renovated and they're nicer than the single, older ones, especially the barhrooms. Beds are comfortable but our bedcovers had holes in it. The windows in the first room we stayed weren't very clean and the hallway had a funky smell on the 2nd floor. The room decor looked a bit old and there was no full body mirror. Depending on what you want to do in LA this location might not be ideal. If you want to visit major attractions, or want to do some sightseeing, you'd need to rent a car or take a bus/taxi/uber as there's not much to see in this neighborhood (except really good Mexican restaurants). Staff was nice.  More</t>
   </si>
   <si>
+    <t>Michelle T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r400460978-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -1046,6 +1169,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>jesush234</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r399672229-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -1070,6 +1196,9 @@
     <t>I was in town from San Jose CA visiting family members. I was looking for something cheap but decent. Travelodge in Bell surpassed my expectations. We booked the jacuzzi room. It was a huge room. Everything was very clean and very comfy!  It was a romantic room! Highly recommend it. The check in was a bit dull. There were 3 middle eastern gentlemen in the front desk. I walked in and asked for my credit card and took a copy of it, which I thought was a bit sketchy. The gentlemen spoke amongst each other and laugh in their language. I felt uncomfortable. The room and facilities did make up for the bad check in. More</t>
   </si>
   <si>
+    <t>ANGIE L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r396299339-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -1094,6 +1223,9 @@
     <t>The room smelled like urine and there were stains on the comforter. The room was huge though and clean otherwise. More</t>
   </si>
   <si>
+    <t>marvins717</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r394682226-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -1112,6 +1244,9 @@
     <t>The hotel is very clean with updated rooms. We were in a king suite with a jacuzzi bath. Their was a separate living room space with microwave &amp; fridge &amp; table with chairs &amp; desk with chair. The couch pulled out to sofa bed. Bonus a 1/2 bath with decent counter space. The king room was separated by a closed door from the living area. Bed was comfy plenty of counter space. Large mirrors. Separate shower then a huge jacuzzi bath. The only negative for me was the breakfast. It was your typical continental meal. Cereal, donuts, muffins, fruit, instant oatmeal, juice, milk. No meat, nothing hot or cooked to enjoy. Overall was shocked at how nice the room was. You can tell they have put a lot of time into renovation in the rooms. More</t>
   </si>
   <si>
+    <t>Kevin  M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r393760999-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -1130,6 +1265,9 @@
     <t>Great value for money. We stayed here for a week with no problems. Friendly staff and the gentleman at the reception was very helpful. Everywhere we went was within 40mins drive. Although we were told the location was a little dodgy my wife went for a walk most mornings without any hassles. More</t>
   </si>
   <si>
+    <t>J5515WMelizabethh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r384658425-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -1148,6 +1286,9 @@
     <t>Responded June 23, 2016</t>
   </si>
   <si>
+    <t>UNscenefuture W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r383731839-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -1166,6 +1307,9 @@
     <t>Staff was helpful and very friendly. They helped me with a cheap rental car that I benefitted from tremendously. The location was convenient to major stores to grab things last minute as well. The only objective things I would add is: the luggage carry up stairs was a challenge but not impossible, and I would have loved more breakfast options. Otherwise 5 stars! Would stay again! More</t>
   </si>
   <si>
+    <t>932leeg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r379674533-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -1193,6 +1337,9 @@
     <t>Place was clean, newly remodeled. Though not as quite as I would have preferred. Pleasant overall. I would recommend. Just don't expect much in the way of breakfast. More</t>
   </si>
   <si>
+    <t>juansW319OX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r369656961-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -1211,6 +1358,9 @@
     <t>Responded May 3, 2016</t>
   </si>
   <si>
+    <t>HotelGuruGirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r369426321-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -1235,6 +1385,9 @@
     <t>Parking situation sucks and there's no elevator so if you get a 2nd floor room you have to lug all your stuff up the stairs.Otherwise the rooms are really not bad.Not bad in size. Bed was alright. Decent TV with good channel selection. Hotel was pretty quiet when I was there so that was nice.Not a bad stay for when you need something in a pinch.More</t>
   </si>
   <si>
+    <t>H9337KMcynthias</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r368860534-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -1253,6 +1406,9 @@
     <t>Previous occupant must have smoked in the nonsmoking room based on the initial smell but once notified the front office promptly arrived with something to remedy the situation then it was like it never happened, very pleased otherwise More</t>
   </si>
   <si>
+    <t>brwneyedtina2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r364977557-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -1277,6 +1433,9 @@
     <t>Great clean place to stay.  The staff was very nice.  Hollywood was a 30 to 40 minute drive.  There was not sufficient parking in front of the rooms.  There were 3 or 4 handicap spaces in front of my room and security told me that I couldn't park there even though it was raining and late at night, so obviously three different handicap vehicles were not going to show up and take those spaces right in front of my door.  I had to park very far away and run through the rain getting soaking wet.  That was frustrating.  I never ate while I was there because I was gone a lot.  Other than the parking issue, everything was good.  More</t>
   </si>
   <si>
+    <t>natashag927</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r363978535-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -1286,6 +1445,9 @@
     <t>04/13/2016</t>
   </si>
   <si>
+    <t>Julie P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r361048450-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -1313,6 +1475,9 @@
     <t>Asked for no cleaning service. Asked for privacy while out for the day. Received the opposite. They changed my key, so could not enter my room. My curtains were left open, so all of my items were visible to any passerby. Very spurious. Had to go to front desk to have key recoded. Sheets were not clean upon arrival. More</t>
   </si>
   <si>
+    <t>roberteR6690RV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r354344628-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -1337,6 +1502,9 @@
     <t>We would stay here again the price was right, and a good location.  But we feel the breakfast was a bit lacking on choice other than that it was fnieMore</t>
   </si>
   <si>
+    <t>Bellnathan11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r353875883-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
   </si>
   <si>
@@ -1344,6 +1512,9 @@
   </si>
   <si>
     <t>03/08/2016</t>
+  </si>
+  <si>
+    <t>dgolv72</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32055-d8735869-r350019311-Travelodge_Inn_Suites_by_Wyndham_Bell_Los_Angeles_Area-Bell_California.html</t>
@@ -1858,43 +2029,47 @@
       <c r="A2" t="n">
         <v>7176</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -1912,56 +2087,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>7176</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -1983,56 +2162,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>7176</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2044,56 +2227,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>7176</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -2107,56 +2294,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>7176</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -2178,56 +2369,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="X6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>7176</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
         <v>91</v>
       </c>
-      <c r="J7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>86</v>
-      </c>
       <c r="O7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2243,56 +2438,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="X7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Y7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>7176</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="O8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -2314,54 +2513,58 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="X8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="Y8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>7176</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>109</v>
       </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>102</v>
-      </c>
       <c r="O9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -2383,54 +2586,58 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="X9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="Y9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>7176</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="O10" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -2452,56 +2659,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="X10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="Y10" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>7176</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>128</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="O11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2523,56 +2734,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="X11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="Y11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>7176</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>137</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="J12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="K12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="L12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" t="n">
         <v>2</v>
@@ -2594,54 +2809,58 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="X12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="Y12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>7176</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>146</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -2663,56 +2882,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="X13" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="Y13" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>7176</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>149</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="J14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="K14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="L14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -2734,56 +2957,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="X14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="Y14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>7176</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>159</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="J15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="K15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="L15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="O15" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -2801,56 +3028,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="X15" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="Y15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>7176</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>166</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="J16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="K16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="O16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -2872,56 +3103,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="X16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="Y16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>7176</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>176</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="J17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="K17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2933,56 +3168,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="X17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="Y17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>7176</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>186</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="J18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="K18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="L18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -3004,56 +3243,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="X18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="Y18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>7176</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>195</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="J19" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="K19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="O19" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3065,56 +3308,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="X19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="Y19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>7176</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>206</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="J20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="K20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="L20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="O20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3126,56 +3373,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="X20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="Y20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>7176</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>216</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="J21" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="K21" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="L21" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="O21" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3187,54 +3438,58 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="X21" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="Y21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>7176</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>225</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="J22" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="K22" t="s"/>
       <c r="L22" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="O22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -3256,56 +3511,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="X22" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="Y22" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>7176</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>232</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="J23" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="K23" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="L23" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="O23" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P23" t="n">
         <v>3</v>
@@ -3327,56 +3586,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="X23" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="Y23" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>7176</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>242</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="J24" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="K24" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="L24" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="O24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3398,54 +3661,58 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="X24" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="Y24" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>7176</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>248</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="J25" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="K25" t="s"/>
       <c r="L25" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="O25" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -3467,54 +3734,58 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="X25" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="Y25" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>7176</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>254</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="J26" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="K26" t="s"/>
       <c r="L26" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="O26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3536,56 +3807,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="X26" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="Y26" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>7176</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>260</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="J27" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="K27" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="L27" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="O27" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3607,56 +3882,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="X27" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="Y27" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>7176</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>270</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="J28" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="K28" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="L28" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="O28" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -3674,54 +3953,58 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="X28" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="Y28" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>7176</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>279</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="J29" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="K29" t="s"/>
       <c r="L29" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="O29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -3743,56 +4026,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="X29" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="Y29" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>7176</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>286</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="J30" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="K30" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="L30" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="O30" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3814,56 +4101,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="X30" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="Y30" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>7176</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>295</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="J31" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="K31" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="L31" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="O31" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -3885,54 +4176,58 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="X31" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="Y31" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>7176</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>304</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="J32" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="K32" t="s"/>
       <c r="L32" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="O32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3954,54 +4249,58 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="X32" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="Y32" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>7176</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>311</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="J33" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="K33" t="s"/>
       <c r="L33" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="O33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -4023,56 +4322,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="X33" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="Y33" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>7176</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>317</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="J34" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="K34" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="L34" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="O34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -4094,54 +4397,58 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="X34" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="Y34" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>7176</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>324</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="J35" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="K35" t="s"/>
       <c r="L35" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="O35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4163,54 +4470,58 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="X35" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="Y35" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>7176</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>331</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="J36" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="K36" t="s"/>
       <c r="L36" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="O36" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4232,54 +4543,58 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="X36" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="Y36" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>7176</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>337</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="J37" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="K37" t="s"/>
       <c r="L37" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="O37" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -4301,54 +4616,58 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="X37" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="Y37" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>7176</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>343</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="J38" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="K38" t="s"/>
       <c r="L38" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="O38" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4370,56 +4689,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="X38" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="Y38" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>7176</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>350</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="J39" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="K39" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="L39" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="O39" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4435,56 +4758,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="X39" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="Y39" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>7176</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>357</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="J40" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="K40" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="L40" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="M40" t="n">
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="O40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P40" t="n">
         <v>3</v>
@@ -4506,56 +4833,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="X40" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="Y40" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>7176</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>366</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>328</v>
+        <v>368</v>
       </c>
       <c r="J41" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="K41" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="L41" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="O41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P41" t="n">
         <v>4</v>
@@ -4577,54 +4908,58 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="X41" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="Y41" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>7176</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>376</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="J42" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="K42" t="s"/>
       <c r="L42" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="O42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P42" t="n">
         <v>3</v>
@@ -4646,56 +4981,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="X42" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="Y42" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>7176</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>381</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="J43" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="K43" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="L43" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="O43" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -4717,56 +5056,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="X43" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="Y43" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>7176</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>390</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="J44" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="K44" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="L44" t="s">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="O44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -4788,56 +5131,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="X44" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="Y44" t="s">
-        <v>355</v>
+        <v>398</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>7176</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>399</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="J45" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="K45" t="s">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="L45" t="s">
-        <v>360</v>
+        <v>404</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="O45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -4859,56 +5206,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="X45" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="Y45" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>7176</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>406</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="J46" t="s">
-        <v>364</v>
+        <v>409</v>
       </c>
       <c r="K46" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="L46" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="O46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -4920,54 +5271,58 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="X46" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="Y46" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>7176</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>413</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>368</v>
+        <v>414</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>369</v>
+        <v>415</v>
       </c>
       <c r="J47" t="s">
-        <v>370</v>
+        <v>416</v>
       </c>
       <c r="K47" t="s"/>
       <c r="L47" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="O47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -4989,56 +5344,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>372</v>
+        <v>418</v>
       </c>
       <c r="X47" t="s">
-        <v>373</v>
+        <v>419</v>
       </c>
       <c r="Y47" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>7176</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>420</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>374</v>
+        <v>421</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>375</v>
+        <v>422</v>
       </c>
       <c r="J48" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
       <c r="K48" t="s">
-        <v>377</v>
+        <v>424</v>
       </c>
       <c r="L48" t="s">
-        <v>378</v>
+        <v>425</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="O48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5050,56 +5409,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>372</v>
+        <v>418</v>
       </c>
       <c r="X48" t="s">
-        <v>373</v>
+        <v>419</v>
       </c>
       <c r="Y48" t="s">
-        <v>379</v>
+        <v>426</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>7176</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>427</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>380</v>
+        <v>428</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="J49" t="s">
-        <v>382</v>
+        <v>430</v>
       </c>
       <c r="K49" t="s">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="L49" t="s">
-        <v>384</v>
+        <v>432</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>385</v>
+        <v>433</v>
       </c>
       <c r="O49" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -5121,54 +5484,58 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>386</v>
+        <v>434</v>
       </c>
       <c r="X49" t="s">
-        <v>387</v>
+        <v>435</v>
       </c>
       <c r="Y49" t="s">
-        <v>388</v>
+        <v>436</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>7176</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>437</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>390</v>
+        <v>439</v>
       </c>
       <c r="J50" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="K50" t="s"/>
       <c r="L50" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="O50" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P50" t="n">
         <v>3</v>
@@ -5190,56 +5557,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="X50" t="s">
-        <v>394</v>
+        <v>443</v>
       </c>
       <c r="Y50" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>7176</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>444</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>395</v>
+        <v>445</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J51" t="s">
-        <v>397</v>
+        <v>447</v>
       </c>
       <c r="K51" t="s">
-        <v>398</v>
+        <v>448</v>
       </c>
       <c r="L51" t="s">
-        <v>399</v>
+        <v>449</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>385</v>
+        <v>433</v>
       </c>
       <c r="O51" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5251,56 +5622,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="X51" t="s">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="Y51" t="s">
-        <v>402</v>
+        <v>452</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>7176</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>453</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>404</v>
+        <v>455</v>
       </c>
       <c r="J52" t="s">
-        <v>405</v>
+        <v>456</v>
       </c>
       <c r="K52" t="s">
-        <v>406</v>
+        <v>457</v>
       </c>
       <c r="L52" t="s">
-        <v>407</v>
+        <v>458</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="O52" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5322,56 +5697,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="X52" t="s">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="Y52" t="s">
-        <v>408</v>
+        <v>459</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>7176</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>460</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>409</v>
+        <v>461</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>410</v>
+        <v>462</v>
       </c>
       <c r="J53" t="s">
-        <v>411</v>
+        <v>463</v>
       </c>
       <c r="K53" t="s">
-        <v>412</v>
+        <v>464</v>
       </c>
       <c r="L53" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="O53" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5393,54 +5772,58 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>414</v>
+        <v>466</v>
       </c>
       <c r="X53" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
       <c r="Y53" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>7176</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>469</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>417</v>
+        <v>470</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="J54" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="K54" t="s"/>
       <c r="L54" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="O54" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="P54" t="n">
         <v>3</v>
@@ -5462,56 +5845,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>414</v>
+        <v>466</v>
       </c>
       <c r="X54" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
       <c r="Y54" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>7176</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>473</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="J55" t="s">
-        <v>422</v>
+        <v>476</v>
       </c>
       <c r="K55" t="s">
-        <v>423</v>
+        <v>477</v>
       </c>
       <c r="L55" t="s">
-        <v>424</v>
+        <v>478</v>
       </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>425</v>
+        <v>479</v>
       </c>
       <c r="O55" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -5533,56 +5920,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>426</v>
+        <v>480</v>
       </c>
       <c r="X55" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="Y55" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>7176</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>483</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>429</v>
+        <v>484</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>430</v>
+        <v>485</v>
       </c>
       <c r="J56" t="s">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="K56" t="s">
-        <v>432</v>
+        <v>487</v>
       </c>
       <c r="L56" t="s">
-        <v>433</v>
+        <v>488</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>425</v>
+        <v>479</v>
       </c>
       <c r="O56" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -5604,54 +5995,58 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>434</v>
+        <v>489</v>
       </c>
       <c r="X56" t="s">
-        <v>435</v>
+        <v>490</v>
       </c>
       <c r="Y56" t="s">
-        <v>436</v>
+        <v>491</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>7176</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>492</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>437</v>
+        <v>493</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
       <c r="J57" t="s">
-        <v>439</v>
+        <v>495</v>
       </c>
       <c r="K57" t="s"/>
       <c r="L57" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>425</v>
+        <v>479</v>
       </c>
       <c r="O57" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -5673,54 +6068,58 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>434</v>
+        <v>489</v>
       </c>
       <c r="X57" t="s">
-        <v>435</v>
+        <v>490</v>
       </c>
       <c r="Y57" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>7176</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>496</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>440</v>
+        <v>497</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>441</v>
+        <v>498</v>
       </c>
       <c r="J58" t="s">
-        <v>442</v>
+        <v>499</v>
       </c>
       <c r="K58" t="s"/>
       <c r="L58" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>443</v>
+        <v>500</v>
       </c>
       <c r="O58" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -5742,13 +6141,13 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>434</v>
+        <v>489</v>
       </c>
       <c r="X58" t="s">
-        <v>435</v>
+        <v>490</v>
       </c>
       <c r="Y58" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
